--- a/Player_Analysis/Team_Results_trainees.xlsx
+++ b/Player_Analysis/Team_Results_trainees.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/paul/Documents/GitHub/Hattrick_Analysis/Player_Analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F16AC84-2A60-CC41-AEAA-3E1419A0498E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12E8C10B-1AD8-2D4A-8F09-8D9696EADD43}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="460" windowWidth="22020" windowHeight="17540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="400" yWindow="460" windowWidth="18480" windowHeight="17540" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Trainees" sheetId="2" r:id="rId2"/>
+    <sheet name="Lineups" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="99">
   <si>
     <t>POS</t>
   </si>
@@ -305,6 +306,30 @@
   </si>
   <si>
     <t>SUB W</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ILRM </t>
+  </si>
+  <si>
+    <t>SUBS</t>
+  </si>
+  <si>
+    <t>IM</t>
+  </si>
+  <si>
+    <t>Extra</t>
+  </si>
+  <si>
+    <t>CD</t>
+  </si>
+  <si>
+    <t>Lineup 1 - Winger1</t>
+  </si>
+  <si>
+    <t>Lineup 2 - Winger2</t>
+  </si>
+  <si>
+    <t>Ladder - 12/5/2020</t>
   </si>
 </sst>
 </file>
@@ -679,7 +704,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AE24"/>
   <sheetViews>
-    <sheetView topLeftCell="S1" workbookViewId="0">
+    <sheetView topLeftCell="V1" workbookViewId="0">
       <selection activeCell="AE30" sqref="AE30"/>
     </sheetView>
   </sheetViews>
@@ -2971,11 +2996,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD75596E-F8F6-844D-8104-7EF02D5FF440}">
   <dimension ref="A1:AA23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="O2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AB16" sqref="AB16"/>
+      <selection pane="bottomRight" activeCell="A2" sqref="A2:A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3984,4 +4009,359 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F23F476-BDEE-F048-9600-9E7E033AB2C0}">
+  <dimension ref="A1:H21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="110" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>83</v>
+      </c>
+      <c r="G2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E3" t="s">
+        <v>83</v>
+      </c>
+      <c r="G3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>84</v>
+      </c>
+      <c r="G4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D5" t="s">
+        <v>87</v>
+      </c>
+      <c r="E5" t="s">
+        <v>84</v>
+      </c>
+      <c r="G5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>89</v>
+      </c>
+      <c r="D6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" t="s">
+        <v>89</v>
+      </c>
+      <c r="G6" t="s">
+        <v>26</v>
+      </c>
+      <c r="H6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>90</v>
+      </c>
+      <c r="D7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E7" t="s">
+        <v>90</v>
+      </c>
+      <c r="G7" t="s">
+        <v>18</v>
+      </c>
+      <c r="H7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" t="s">
+        <v>36</v>
+      </c>
+      <c r="G8" t="s">
+        <v>5</v>
+      </c>
+      <c r="H8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" t="s">
+        <v>36</v>
+      </c>
+      <c r="G9" t="s">
+        <v>25</v>
+      </c>
+      <c r="H9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" t="s">
+        <v>31</v>
+      </c>
+      <c r="G10" t="s">
+        <v>7</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" t="s">
+        <v>91</v>
+      </c>
+      <c r="D11" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" t="s">
+        <v>91</v>
+      </c>
+      <c r="G11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>47</v>
+      </c>
+      <c r="D12" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12" t="s">
+        <v>47</v>
+      </c>
+      <c r="G12" t="s">
+        <v>21</v>
+      </c>
+      <c r="H12" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>47</v>
+      </c>
+      <c r="D13" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" t="s">
+        <v>50</v>
+      </c>
+      <c r="D14" t="s">
+        <v>14</v>
+      </c>
+      <c r="E14" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B16" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17" t="s">
+        <v>50</v>
+      </c>
+      <c r="D17" t="s">
+        <v>21</v>
+      </c>
+      <c r="E17" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B18" t="s">
+        <v>95</v>
+      </c>
+      <c r="E18" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>13</v>
+      </c>
+      <c r="B19" t="s">
+        <v>93</v>
+      </c>
+      <c r="D19" t="s">
+        <v>13</v>
+      </c>
+      <c r="E19" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>17</v>
+      </c>
+      <c r="B20" t="s">
+        <v>36</v>
+      </c>
+      <c r="D20" t="s">
+        <v>17</v>
+      </c>
+      <c r="E20" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>12</v>
+      </c>
+      <c r="B21" t="s">
+        <v>94</v>
+      </c>
+      <c r="D21" t="s">
+        <v>12</v>
+      </c>
+      <c r="E21" t="s">
+        <v>94</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>